--- a/wbs.xlsx
+++ b/wbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="733" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="671" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -91,10 +91,16 @@
     <t>初步設計</t>
   </si>
   <si>
+    <t>M2:Class Diagram</t>
+  </si>
+  <si>
     <t>系統實作</t>
   </si>
   <si>
     <t>250 hours</t>
+  </si>
+  <si>
+    <t>實作</t>
   </si>
 </sst>
 </file>
@@ -196,10 +202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -207,7 +213,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0051546391753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71134020618557"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0051546391753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.73711340206186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6907216494845"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8556701030928"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.73711340206186"/>
   </cols>
@@ -233,7 +239,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <f aca="false">E3+E5+E12+E14</f>
+        <f aca="false">E3+E5+E12+E15</f>
         <v>65</v>
       </c>
     </row>
@@ -354,12 +360,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
